--- a/biology/Histoire de la zoologie et de la botanique/Delphine_Philippe-Lemaître/Delphine_Philippe-Lemaître.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Delphine_Philippe-Lemaître/Delphine_Philippe-Lemaître.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Delphine_Philippe-Lema%C3%AEtre</t>
+          <t>Delphine_Philippe-Lemaître</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delphine Philippe-Lemaître, née le 12 juin 1798 à Pont-Audemer et morte le 10 juin 1863 à Illeville-sur-Montfort, est une historienne, archéologue, botaniste et poète française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Delphine_Philippe-Lema%C3%AEtre</t>
+          <t>Delphine_Philippe-Lemaître</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Delphine Lemaître montra de bonne heure des dispositions très prononcées pour le travail et, son mariage n’ayant pas été heureux, elle chercha une consolation[réf. souhaitée] dans l’étude des fleurs.
 Après s’être adonnée avec ferveur à la botanique, elle se livra à son gout favori pour les antiquités de son pays natal, et enrichit la Revue de Rouen et le Bulletin monumental d’articles instructifs et intéressants rédigés avec une conscience rigoureuse, une investigation exhaustive dans les plus petits détails et des descriptions complètes. Sa notice sur la chapelle et la fontaine de la Trinité à Ézy-sur-Eure a ainsi attiré l’attention sur ces indices d’antiquité celtique, et sa description du château de La Court, à Saint-Philbert-sur-Risle, sur la somptueuse demeure des Pontchartrain, des Choiseul-Gouffier et des Montpoignant.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Delphine_Philippe-Lema%C3%AEtre</t>
+          <t>Delphine_Philippe-Lemaître</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice sur les vitraux de St. Ouen de Pont-Audemer (Eure) [Texte imprimé]  / par Mme Philippe Lemaitre, 1853, rouen
 Lettres à Julie sur la botanique et la phisiologie végétale, Rouen, ed. Mégard, 1839.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Delphine_Philippe-Lema%C3%AEtre</t>
+          <t>Delphine_Philippe-Lemaître</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Société libre d’émulation du commerce et de l’industrie de la Seine-Inférieure, Bulletin de la Société libre d’émulation du commerce et de l’industrie de la Seine-Inférieure, Rouen, H. Boissel, 1866 (lire en ligne), p. 318-324.</t>
         </is>
